--- a/data/trans_dic/P36$huevo-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36$huevo-Edad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03820232847503342</v>
+        <v>0.03858354116071327</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0353477219825312</v>
+        <v>0.03404037019222968</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06518424375552616</v>
+        <v>0.06656981435848747</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01600156636999009</v>
+        <v>0.01620258561430834</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01351244772697284</v>
+        <v>0.01378008987392321</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06123158598112699</v>
+        <v>0.06433369938409111</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03236433976484943</v>
+        <v>0.0317127695271655</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02889719748810479</v>
+        <v>0.02958021927871812</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07223297569579026</v>
+        <v>0.07164256412262435</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08272961575461726</v>
+        <v>0.0832427326146595</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08009005907608932</v>
+        <v>0.07707035503103403</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1207513481720466</v>
+        <v>0.1285108854707031</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0464795965087661</v>
+        <v>0.04825941866764195</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04626766262216081</v>
+        <v>0.04388092196819483</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1168430830487543</v>
+        <v>0.1224112335096435</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0589520397328544</v>
+        <v>0.05912335095689975</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05340056065117242</v>
+        <v>0.0544332926168703</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1136135602938661</v>
+        <v>0.1139542635674522</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03150850578621909</v>
+        <v>0.03172258225506749</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03806148715108326</v>
+        <v>0.03876874876402576</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07043206278557408</v>
+        <v>0.06901461665636766</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01158047872454357</v>
+        <v>0.01270161109919998</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01779758031494447</v>
+        <v>0.0178180552113589</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03635037900066559</v>
+        <v>0.03872123750617811</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02590249280569877</v>
+        <v>0.0256296168844734</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03264580926390535</v>
+        <v>0.03246766565577935</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05940525826885369</v>
+        <v>0.05907118200295215</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06157709498586503</v>
+        <v>0.06180412329116159</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07265077409295288</v>
+        <v>0.06994661703980874</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.118490596370477</v>
+        <v>0.1185231042119709</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03489191035981368</v>
+        <v>0.03815493719880939</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04835984223015723</v>
+        <v>0.04738543710583569</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07352580273911578</v>
+        <v>0.07455881706483843</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0457018473135366</v>
+        <v>0.04626711834874007</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05580862404445035</v>
+        <v>0.05479417682465593</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08834281644094998</v>
+        <v>0.09025407365677951</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02373842070952158</v>
+        <v>0.02470868476586837</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.028387776513858</v>
+        <v>0.02880057344193868</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05801087357805387</v>
+        <v>0.058243898955005</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01671586181332985</v>
+        <v>0.01823260802145126</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01638492998199135</v>
+        <v>0.01589029974419582</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05671906000800132</v>
+        <v>0.05630825371422443</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02402348712298676</v>
+        <v>0.0235666092209287</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02544253098202157</v>
+        <v>0.02546236309087381</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06283216244331259</v>
+        <v>0.06342617752687028</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05697259615917771</v>
+        <v>0.05915913238013569</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06237311664585601</v>
+        <v>0.06158624713077363</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09885200798814599</v>
+        <v>0.09791436557464551</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04447765007740574</v>
+        <v>0.04495257402204818</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04091687462213307</v>
+        <v>0.04014715592748478</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09852556977831324</v>
+        <v>0.09615973201669711</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0446168197072743</v>
+        <v>0.04531076337062532</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04513562151401565</v>
+        <v>0.04583460970253657</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09152943976076028</v>
+        <v>0.09240313758394877</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02154726399716975</v>
+        <v>0.02097244934327415</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03502472637937155</v>
+        <v>0.03621671937460377</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05638189561584169</v>
+        <v>0.05535522863265531</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.00720130134395848</v>
+        <v>0.007979491550692771</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01829307077316889</v>
+        <v>0.01619635201334554</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03366312114225255</v>
+        <v>0.03399606122016843</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.017772753352955</v>
+        <v>0.0171762967534004</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03053822448508843</v>
+        <v>0.0293499825840937</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04883544376104643</v>
+        <v>0.04745302186199431</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06177358728068829</v>
+        <v>0.06014546320813329</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07177805394249562</v>
+        <v>0.07066643550415469</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09886447076748929</v>
+        <v>0.09821638273728364</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03267242827271954</v>
+        <v>0.03119184131809824</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05080578904059445</v>
+        <v>0.04973263128985363</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06936045233237419</v>
+        <v>0.06964345285988427</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03835828621779155</v>
+        <v>0.0404375171113543</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05555985746242067</v>
+        <v>0.05406528511151274</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07589326453617215</v>
+        <v>0.0761815107746555</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.005114916040132923</v>
+        <v>0.005131575405820064</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.018899099442215</v>
+        <v>0.01941153924783167</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0519553976173641</v>
+        <v>0.05095168414103109</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.004938289417928017</v>
+        <v>0.005121761111485431</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.006969407903858761</v>
+        <v>0.006993583365508287</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04001292490451484</v>
+        <v>0.04054902448437492</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.007109508352462176</v>
+        <v>0.006696062046464785</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01760667086123844</v>
+        <v>0.01663433409308622</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05140574109825959</v>
+        <v>0.05192255437471473</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03509239138915782</v>
+        <v>0.03430177248162825</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0543163593289521</v>
+        <v>0.05694746603161212</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1057583099377652</v>
+        <v>0.09980573463818335</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02972616898926048</v>
+        <v>0.02897624308737316</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0364814977485827</v>
+        <v>0.03774968639235501</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08877519389311406</v>
+        <v>0.09077729671366015</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02658416679710276</v>
+        <v>0.02453610722491085</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04041213973704923</v>
+        <v>0.03964282521259674</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08655937930470388</v>
+        <v>0.08585096517503212</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.008502093664643114</v>
+        <v>0.008920403881239039</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.00318086496687933</v>
+        <v>0.0002828340948823494</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0259574487331656</v>
+        <v>0.02601652795335549</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.008079827902690564</v>
+        <v>0.00621285154045547</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.002511801655521406</v>
+        <v>0.002528984933667417</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03308496422036653</v>
+        <v>0.03199329496994721</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01003037601890931</v>
+        <v>0.01055179683941349</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.004275421420472427</v>
+        <v>0.004200539480944692</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03465252556807712</v>
+        <v>0.03441662564021911</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0474994927003967</v>
+        <v>0.04807625092832567</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02731324670186595</v>
+        <v>0.02710782023375351</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06850481707400051</v>
+        <v>0.06846157085361655</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03678098548938585</v>
+        <v>0.03638746894818947</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03157257719850427</v>
+        <v>0.03232303438189486</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08047267093703697</v>
+        <v>0.07660490853301284</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03175841962195883</v>
+        <v>0.03506754432035351</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.02350323711372016</v>
+        <v>0.02239875091058273</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06627374254553005</v>
+        <v>0.06609728973379458</v>
       </c>
     </row>
     <row r="22">
@@ -1332,28 +1332,28 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.004060352038803978</v>
+        <v>0.00408632187927581</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01973750870247083</v>
+        <v>0.01966675634693334</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.003349765314193603</v>
+        <v>0.003335287403286077</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.002579806941215432</v>
+        <v>0.002591779502814691</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0222306164204603</v>
+        <v>0.02282465956869654</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.002069953399818459</v>
+        <v>0.002072768852171031</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.006241824419291335</v>
+        <v>0.005104880833771538</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02577212158591982</v>
+        <v>0.02528188552682825</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01834445125564409</v>
+        <v>0.01591851910305786</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03818031899254846</v>
+        <v>0.04092987734389958</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06291863271362905</v>
+        <v>0.06296817587197795</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02744652892375684</v>
+        <v>0.02727697824555958</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02835436518194676</v>
+        <v>0.03259414722353142</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07353206928523402</v>
+        <v>0.06737492824114982</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01955309805479174</v>
+        <v>0.02144995485999187</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02646360905907316</v>
+        <v>0.02592237160973747</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05804334157084166</v>
+        <v>0.05845012044999384</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0295233840722469</v>
+        <v>0.02952055424123693</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0355679479001493</v>
+        <v>0.03542710290484526</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.06561623694910278</v>
+        <v>0.06538820627646924</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01624361351810361</v>
+        <v>0.0164447883492774</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01857031680574116</v>
+        <v>0.01811037941923042</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.05318298841934026</v>
+        <v>0.05239385272448546</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02456034988470497</v>
+        <v>0.02436705490352887</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02863162788655244</v>
+        <v>0.02864901667805584</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.06119145167640339</v>
+        <v>0.06164558326960908</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04357757609869251</v>
+        <v>0.04363749292203995</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04953665722946386</v>
+        <v>0.04887399689395202</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0835366198257696</v>
+        <v>0.08341701402078183</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02635154569324247</v>
+        <v>0.02674437373605118</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02913840246379234</v>
+        <v>0.02948645215166067</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.06940504234593244</v>
+        <v>0.06859208226918102</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.03297139635314197</v>
+        <v>0.03282689570591636</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03717403759228957</v>
+        <v>0.03710211757212264</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.07354235974879006</v>
+        <v>0.07426840418842245</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>18840</v>
+        <v>19028</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16053</v>
+        <v>15459</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>27342</v>
+        <v>27924</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7481</v>
+        <v>7575</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5787</v>
+        <v>5901</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>24175</v>
+        <v>25400</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>31091</v>
+        <v>30465</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>25498</v>
+        <v>26101</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>58817</v>
+        <v>58337</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>40799</v>
+        <v>41052</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>36373</v>
+        <v>35001</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>50651</v>
+        <v>53906</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>21729</v>
+        <v>22561</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19814</v>
+        <v>18791</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>46131</v>
+        <v>48329</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>56633</v>
+        <v>56797</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>47120</v>
+        <v>48031</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>92512</v>
+        <v>92790</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23174</v>
+        <v>23332</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>26116</v>
+        <v>26601</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>41590</v>
+        <v>40753</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7220</v>
+        <v>7918</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>10840</v>
+        <v>10853</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>20485</v>
+        <v>21821</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>35199</v>
+        <v>34828</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>42284</v>
+        <v>42054</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>68556</v>
+        <v>68171</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>45289</v>
+        <v>45456</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>49849</v>
+        <v>47994</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>69968</v>
+        <v>69987</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>21752</v>
+        <v>23787</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>29456</v>
+        <v>28862</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>41435</v>
+        <v>42017</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>62105</v>
+        <v>62873</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>72286</v>
+        <v>70972</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>101951</v>
+        <v>104157</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15068</v>
+        <v>15684</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19276</v>
+        <v>19556</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>38815</v>
+        <v>38971</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11530</v>
+        <v>12576</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11615</v>
+        <v>11265</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>37513</v>
+        <v>37241</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>31819</v>
+        <v>31214</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>35313</v>
+        <v>35340</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>83597</v>
+        <v>84387</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>36164</v>
+        <v>37552</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>42353</v>
+        <v>41818</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>66142</v>
+        <v>65514</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>30678</v>
+        <v>31006</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>29007</v>
+        <v>28461</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>65163</v>
+        <v>63599</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>59096</v>
+        <v>60015</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>62645</v>
+        <v>63615</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>121778</v>
+        <v>122941</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11145</v>
+        <v>10847</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>21490</v>
+        <v>22222</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>36302</v>
+        <v>35641</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3699</v>
+        <v>4099</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11272</v>
+        <v>9980</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>21813</v>
+        <v>22028</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>18322</v>
+        <v>17707</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>37555</v>
+        <v>36094</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>63087</v>
+        <v>61301</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>31950</v>
+        <v>31108</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>44041</v>
+        <v>43359</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>63655</v>
+        <v>63238</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>16784</v>
+        <v>16023</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31306</v>
+        <v>30645</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>44943</v>
+        <v>45127</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>39544</v>
+        <v>41687</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>68326</v>
+        <v>66488</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>98041</v>
+        <v>98413</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1978</v>
+        <v>1984</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8116</v>
+        <v>8336</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>24830</v>
+        <v>24351</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1995</v>
+        <v>2069</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3114</v>
+        <v>3124</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>19880</v>
+        <v>20147</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5621</v>
+        <v>5295</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>15427</v>
+        <v>14575</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>50109</v>
+        <v>50612</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13571</v>
+        <v>13265</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>23325</v>
+        <v>24455</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>50544</v>
+        <v>47699</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>12009</v>
+        <v>11706</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>16299</v>
+        <v>16865</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>44108</v>
+        <v>45103</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>21020</v>
+        <v>19401</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>35409</v>
+        <v>34735</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>84375</v>
+        <v>83685</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2488</v>
+        <v>2610</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>985</v>
+        <v>88</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>8678</v>
+        <v>8698</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2771</v>
+        <v>2131</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>12498</v>
+        <v>12086</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>6374</v>
+        <v>6706</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2838</v>
+        <v>2788</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>24676</v>
+        <v>24508</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13898</v>
+        <v>14066</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>8461</v>
+        <v>8398</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>22903</v>
+        <v>22889</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>12613</v>
+        <v>12479</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>11177</v>
+        <v>11442</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>30400</v>
+        <v>28938</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>20183</v>
+        <v>22286</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>15601</v>
+        <v>14868</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>47193</v>
+        <v>47067</v>
       </c>
     </row>
     <row r="28">
@@ -2596,28 +2596,28 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5037</v>
+        <v>5019</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>8869</v>
+        <v>9106</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>3981</v>
+        <v>3256</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>16860</v>
+        <v>16539</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>3850</v>
+        <v>3341</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>9498</v>
+        <v>10182</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>16058</v>
+        <v>16070</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>9165</v>
+        <v>9108</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>11029</v>
+        <v>12678</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>29337</v>
+        <v>26881</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>10633</v>
+        <v>11664</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>16877</v>
+        <v>16532</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>37971</v>
+        <v>38237</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>96536</v>
+        <v>96527</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>121674</v>
+        <v>121192</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>222464</v>
+        <v>221691</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>54825</v>
+        <v>55504</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>65965</v>
+        <v>64331</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>188336</v>
+        <v>185542</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>163203</v>
+        <v>161919</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>199650</v>
+        <v>199771</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>424159</v>
+        <v>427307</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>142491</v>
+        <v>142687</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>169459</v>
+        <v>167192</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>283221</v>
+        <v>282815</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>88941</v>
+        <v>90267</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>103505</v>
+        <v>104741</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>245783</v>
+        <v>242904</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>219095</v>
+        <v>218134</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>259217</v>
+        <v>258715</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>509771</v>
+        <v>514804</v>
       </c>
     </row>
     <row r="36">
